--- a/K8s_1.21_1.22.xlsx
+++ b/K8s_1.21_1.22.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirangonela/Documents/FIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{629FAB7F-7BCC-E944-B531-3CF96E9A2A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBAE1A-A284-9346-9BF1-83F45B69C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{EDDC2226-2D03-8547-A07C-DF00D05FE6C4}"/>
+    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{EDDC2226-2D03-8547-A07C-DF00D05FE6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Depreciated_APIs" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Deprecated" sheetId="3" r:id="rId3"/>
+    <sheet name="Removed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
   <si>
     <t>PI Group</t>
   </si>
@@ -1159,13 +1161,1126 @@
   </si>
   <si>
     <t>storage.k8s.io/v1</t>
+  </si>
+  <si>
+    <t>API Group</t>
+  </si>
+  <si>
+    <t>Replacement API Version</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Auditregistration</t>
+  </si>
+  <si>
+    <t>auditregistration.k8s.io/v1alpha1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Deprecated with no direct replacement.</t>
+  </si>
+  <si>
+    <t>Autoscaling</t>
+  </si>
+  <si>
+    <t>autoscaling/v2beta1</t>
+  </si>
+  <si>
+    <t>autoscaling/v2beta2</t>
+  </si>
+  <si>
+    <r>
+      <t>autoscaling/v2beta2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provides additional features and stability improvements.</t>
+    </r>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>batch/v2alpha1</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>node.k8s.io/v1alpha1</t>
+  </si>
+  <si>
+    <t>node.k8s.io/v1beta1</t>
+  </si>
+  <si>
+    <t>The alpha version is deprecated; migrate to the beta version.</t>
+  </si>
+  <si>
+    <t>scheduling.k8s.io/v1alpha1</t>
+  </si>
+  <si>
+    <r>
+      <t>scheduling.k8s.io/v1beta1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>scheduling.k8s.io/v1</t>
+    </r>
+  </si>
+  <si>
+    <t>v1.14, v1.16</t>
+  </si>
+  <si>
+    <t>The alpha version is deprecated; migrate to the beta or stable version.</t>
+  </si>
+  <si>
+    <t>storage.k8s.io/v1alpha1</t>
+  </si>
+  <si>
+    <r>
+      <t>storage.k8s.io/v1beta1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>storage.k8s.io/v1</t>
+    </r>
+  </si>
+  <si>
+    <t>v1.13, v1.17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>webhooks[*].failurePolicy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> default changed from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>webhooks[*].matchPolicy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> default changed from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Equivalent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>webhooks[*].timeoutSeconds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> default changed from 30s to 10s &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>webhooks[*].sideEffects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> default value removed, now required (only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>NoneOnDryRun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permitted) &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>webhooks[*].admissionReviewVersions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> default value removed, now required (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>v1beta1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> supported) &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>webhooks[*].name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> must be unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> no longer defaulted to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Namespaced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, must be explicitly specified &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> removed, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.versions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> removed, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.versions[*].schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.subresources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> removed, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.versions[*].subresources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.additionalPrinterColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> removed, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.versions[*].additionalPrinterColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.conversion.webhookClientConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> moved to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.conversion.webhook.clientConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.conversion.conversionReviewVersions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> moved to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.conversion.webhook.conversionReviewVersions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.versions[*].schema.openAPIV3Schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> now required &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.preserveUnknownFields: true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> disallowed, must use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>x-kubernetes-preserve-unknown-fields: true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>additionalPrinterColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> JSONPath field renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>jsonPath</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.signerName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> required &lt;br&gt; - Requests for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>kubernetes.io/legacy-unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not allowed &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.usages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> required, no duplicates, must contain known usages &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>status.conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> no duplicate types &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>status.conditions[*].status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> required &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>status.certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> must be PEM-encoded, contain only CERTIFICATE blocks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>extensions/v1beta1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>networking.k8s.io/v1beta1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.backend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>spec.defaultBackend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>serviceName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> field renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>service.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - Numeric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>servicePort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fields renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>service.port.number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>servicePort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fields renamed to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>service.port.name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt; - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>pathType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> now required (Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prefix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>ImplementationSpecific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CSIDriver: v1.19 &lt;br&gt; CSINode: v1.17 &lt;br&gt; StorageClass: v1.6 &lt;br&gt; VolumeAttachment: v1.13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1184,6 +2299,18 @@
       <sz val="10.5"/>
       <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Monaco"/>
       <family val="2"/>
     </font>
     <font>
@@ -1240,13 +2367,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -1584,7 +2713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B737A5E-F269-CA4D-BD30-3275A744F6B1}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2004,4 +3133,387 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3C45D-B30D-6E43-9DB6-B61907EADEC1}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66036C-F005-F84D-A1C8-4720DDC26C45}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>